--- a/Docs/OSBMS balancer BOM.xlsx
+++ b/Docs/OSBMS balancer BOM.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -691,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
